--- a/Data_worldCup/Renombrar - jonathan.xlsx
+++ b/Data_worldCup/Renombrar - jonathan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="139">
   <si>
     <t xml:space="preserve">ACTUAL </t>
   </si>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t>Erik Gutiérrez</t>
-  </si>
-  <si>
-    <t>Orbelín Pineda</t>
   </si>
   <si>
     <t>Roberto Alvarado</t>
@@ -805,7 +802,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -819,7 +816,7 @@
     <col min="6" max="6" style="6" width="30.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" hidden="1">
       <c r="A2" s="3">
         <f>CONCATENATE(F2,C2)</f>
       </c>
@@ -859,7 +856,7 @@
         <v>1443087216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" hidden="1">
       <c r="A3" s="3">
         <f>CONCATENATE(F3,C3)</f>
       </c>
@@ -879,7 +876,7 @@
         <v>1443020790</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" hidden="1">
       <c r="A4" s="3">
         <f>CONCATENATE(F4,C4)</f>
       </c>
@@ -899,7 +896,7 @@
         <v>1443021430</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" hidden="1">
       <c r="A5" s="3">
         <f>CONCATENATE(F5,C5)</f>
       </c>
@@ -919,7 +916,7 @@
         <v>1443020872</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" hidden="1">
       <c r="A6" s="3">
         <f>CONCATENATE(F6,C6)</f>
       </c>
@@ -939,7 +936,7 @@
         <v>1443021532</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" hidden="1">
       <c r="A7" s="3">
         <f>CONCATENATE(F7,C7)</f>
       </c>
@@ -959,7 +956,7 @@
         <v>1443025794</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" hidden="1">
       <c r="A8" s="3">
         <f>CONCATENATE(F8,C8)</f>
       </c>
@@ -979,7 +976,7 @@
         <v>1443021934</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" hidden="1">
       <c r="A9" s="3">
         <f>CONCATENATE(F9,C9)</f>
       </c>
@@ -999,7 +996,7 @@
         <v>1443022070</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" hidden="1">
       <c r="A10" s="3">
         <f>CONCATENATE(F10,C10)</f>
       </c>
@@ -1019,7 +1016,7 @@
         <v>1443023175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" hidden="1">
       <c r="A11" s="3">
         <f>CONCATENATE(F11,C11)</f>
       </c>
@@ -1039,7 +1036,7 @@
         <v>1443022046</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" hidden="1">
       <c r="A12" s="3">
         <f>CONCATENATE(F12,C12)</f>
       </c>
@@ -1059,7 +1056,7 @@
         <v>1443021700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" hidden="1">
       <c r="A13" s="3">
         <f>CONCATENATE(F13,C13)</f>
       </c>
@@ -1079,7 +1076,7 @@
         <v>1443022026</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" hidden="1">
       <c r="A14" s="3">
         <f>CONCATENATE(F14,C14)</f>
       </c>
@@ -1099,7 +1096,7 @@
         <v>1443022099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" hidden="1">
       <c r="A15" s="3">
         <f>CONCATENATE(F15,C15)</f>
       </c>
@@ -1119,7 +1116,7 @@
         <v>1443025808</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" hidden="1">
       <c r="A16" s="3">
         <f>CONCATENATE(F16,C16)</f>
       </c>
@@ -1139,7 +1136,7 @@
         <v>1443022121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" hidden="1">
       <c r="A17" s="3">
         <f>CONCATENATE(F17,C17)</f>
       </c>
@@ -1159,7 +1156,7 @@
         <v>1443021835</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" hidden="1">
       <c r="A18" s="3">
         <f>CONCATENATE(F18,C18)</f>
       </c>
@@ -1179,7 +1176,7 @@
         <v>1443023468</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" hidden="1">
       <c r="A19" s="3">
         <f>CONCATENATE(F19,C19)</f>
       </c>
@@ -1199,7 +1196,7 @@
         <v>1443021748</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" hidden="1">
       <c r="A20" s="3">
         <f>CONCATENATE(F20,C20)</f>
       </c>
@@ -1219,7 +1216,7 @@
         <v>1443025860</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" hidden="1">
       <c r="A21" s="3">
         <f>CONCATENATE(F21,C21)</f>
       </c>
@@ -1239,7 +1236,7 @@
         <v>1443021980</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" hidden="1">
       <c r="A22" s="3">
         <f>CONCATENATE(F22,C22)</f>
       </c>
@@ -1259,7 +1256,7 @@
         <v>1443022143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
       <c r="A23" s="3">
         <f>CONCATENATE(F23,C23)</f>
       </c>
@@ -1279,7 +1276,7 @@
         <v>1443025821</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" hidden="1">
       <c r="A24" s="3">
         <f>CONCATENATE(F24,C24)</f>
       </c>
@@ -1299,7 +1296,7 @@
         <v>1443023503</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
       <c r="A25" s="3">
         <f>CONCATENATE(F25,C25)</f>
       </c>
@@ -1319,7 +1316,7 @@
         <v>1443021717</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" hidden="1">
       <c r="A26" s="3">
         <f>CONCATENATE(F26,C26)</f>
       </c>
@@ -1339,7 +1336,7 @@
         <v>1443021592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" hidden="1">
       <c r="A27" s="3">
         <f>CONCATENATE(F27,C27)</f>
       </c>
@@ -1359,7 +1356,7 @@
         <v>1443021995</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" hidden="1">
       <c r="A28" s="3">
         <f>CONCATENATE(F28,C28)</f>
       </c>
@@ -1379,7 +1376,7 @@
         <v>1443021960</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" hidden="1">
       <c r="A29" s="3">
         <f>CONCATENATE(F29,C29)</f>
       </c>
@@ -1399,7 +1396,7 @@
         <v>1442188998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" hidden="1">
       <c r="A30" s="3">
         <f>CONCATENATE(F30,C30)</f>
       </c>
@@ -1419,7 +1416,7 @@
         <v>1442189058</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" hidden="1">
       <c r="A31" s="3">
         <f>CONCATENATE(F31,C31)</f>
       </c>
@@ -1439,7 +1436,7 @@
         <v>1442189019</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" hidden="1">
       <c r="A32" s="3">
         <f>CONCATENATE(F32,C32)</f>
       </c>
@@ -1459,7 +1456,7 @@
         <v>1442189100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" hidden="1">
       <c r="A33" s="3">
         <f>CONCATENATE(F33,C33)</f>
       </c>
@@ -1479,7 +1476,7 @@
         <v>1442189371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" hidden="1">
       <c r="A34" s="3">
         <f>CONCATENATE(F34,C34)</f>
       </c>
@@ -1499,7 +1496,7 @@
         <v>1442189214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" hidden="1">
       <c r="A35" s="3">
         <f>CONCATENATE(F35,C35)</f>
       </c>
@@ -1519,7 +1516,7 @@
         <v>1442189289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" hidden="1">
       <c r="A36" s="3">
         <f>CONCATENATE(F36,C36)</f>
       </c>
@@ -1539,7 +1536,7 @@
         <v>1442190102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" hidden="1">
       <c r="A37" s="3">
         <f>CONCATENATE(F37,C37)</f>
       </c>
@@ -1559,7 +1556,7 @@
         <v>1442190010</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" hidden="1">
       <c r="A38" s="3">
         <f>CONCATENATE(F38,C38)</f>
       </c>
@@ -1579,7 +1576,7 @@
         <v>1442189201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" hidden="1">
       <c r="A39" s="3">
         <f>CONCATENATE(F39,C39)</f>
       </c>
@@ -1599,7 +1596,7 @@
         <v>1442189231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" hidden="1">
       <c r="A40" s="3">
         <f>CONCATENATE(F40,C40)</f>
       </c>
@@ -1619,7 +1616,7 @@
         <v>1442189951</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" hidden="1">
       <c r="A41" s="3">
         <f>CONCATENATE(F41,C41)</f>
       </c>
@@ -1639,7 +1636,7 @@
         <v>1442189916</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" hidden="1">
       <c r="A42" s="3">
         <f>CONCATENATE(F42,C42)</f>
       </c>
@@ -1659,7 +1656,7 @@
         <v>1442189360</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" hidden="1">
       <c r="A43" s="3">
         <f>CONCATENATE(F43,C43)</f>
       </c>
@@ -1679,7 +1676,7 @@
         <v>1442190053</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" hidden="1">
       <c r="A44" s="3">
         <f>CONCATENATE(F44,C44)</f>
       </c>
@@ -1699,7 +1696,7 @@
         <v>1442189179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" hidden="1">
       <c r="A45" s="3">
         <f>CONCATENATE(F45,C45)</f>
       </c>
@@ -1719,7 +1716,7 @@
         <v>1442189277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" hidden="1">
       <c r="A46" s="3">
         <f>CONCATENATE(F46,C46)</f>
       </c>
@@ -1739,7 +1736,7 @@
         <v>1442189240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" hidden="1">
       <c r="A47" s="3">
         <f>CONCATENATE(F47,C47)</f>
       </c>
@@ -1759,7 +1756,7 @@
         <v>1442189981</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" hidden="1">
       <c r="A48" s="3">
         <f>CONCATENATE(F48,C48)</f>
       </c>
@@ -1779,7 +1776,7 @@
         <v>1442189161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" hidden="1">
       <c r="A49" s="3">
         <f>CONCATENATE(F49,C49)</f>
       </c>
@@ -1799,7 +1796,7 @@
         <v>1442190125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
       <c r="A50" s="3">
         <f>CONCATENATE(F50,C50)</f>
       </c>
@@ -1819,7 +1816,7 @@
         <v>1442189384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" hidden="1">
       <c r="A51" s="3">
         <f>CONCATENATE(F51,C51)</f>
       </c>
@@ -1839,7 +1836,7 @@
         <v>1442189392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" hidden="1">
       <c r="A52" s="3">
         <f>CONCATENATE(F52,C52)</f>
       </c>
@@ -1859,7 +1856,7 @@
         <v>1442190150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" hidden="1">
       <c r="A53" s="3">
         <f>CONCATENATE(F53,C53)</f>
       </c>
@@ -1879,7 +1876,7 @@
         <v>1442189927</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" hidden="1">
       <c r="A54" s="3">
         <f>CONCATENATE(F54,C54)</f>
       </c>
@@ -1899,7 +1896,7 @@
         <v>1442190070</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" hidden="1">
       <c r="A55" s="3">
         <f>CONCATENATE(F55,C55)</f>
       </c>
@@ -1919,7 +1916,7 @@
         <v>1443370636</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" hidden="1">
       <c r="A56" s="3">
         <f>CONCATENATE(F56,C56)</f>
       </c>
@@ -1939,7 +1936,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" hidden="1">
       <c r="A57" s="3">
         <f>CONCATENATE(F57,C57)</f>
       </c>
@@ -1959,7 +1956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" hidden="1">
       <c r="A58" s="3">
         <f>CONCATENATE(F58,C58)</f>
       </c>
@@ -1979,7 +1976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" hidden="1">
       <c r="A59" s="3">
         <f>CONCATENATE(F59,C59)</f>
       </c>
@@ -1999,7 +1996,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" hidden="1">
       <c r="A60" s="3">
         <f>CONCATENATE(F60,C60)</f>
       </c>
@@ -2019,7 +2016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" hidden="1">
       <c r="A61" s="3">
         <f>CONCATENATE(F61,C61)</f>
       </c>
@@ -2039,7 +2036,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" hidden="1">
       <c r="A62" s="3">
         <f>CONCATENATE(F62,C62)</f>
       </c>
@@ -2059,7 +2056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" hidden="1">
       <c r="A63" s="3">
         <f>CONCATENATE(F63,C63)</f>
       </c>
@@ -2079,7 +2076,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" hidden="1">
       <c r="A64" s="3">
         <f>CONCATENATE(F64,C64)</f>
       </c>
@@ -2099,7 +2096,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" hidden="1">
       <c r="A65" s="3">
         <f>CONCATENATE(F65,C65)</f>
       </c>
@@ -2119,7 +2116,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" hidden="1">
       <c r="A66" s="3">
         <f>CONCATENATE(F66,C66)</f>
       </c>
@@ -2139,7 +2136,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" hidden="1">
       <c r="A67" s="3">
         <f>CONCATENATE(F67,C67)</f>
       </c>
@@ -2159,7 +2156,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" hidden="1">
       <c r="A68" s="3">
         <f>CONCATENATE(F68,C68)</f>
       </c>
@@ -2179,7 +2176,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" hidden="1">
       <c r="A69" s="3">
         <f>CONCATENATE(F69,C69)</f>
       </c>
@@ -2199,7 +2196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" hidden="1">
       <c r="A70" s="3">
         <f>CONCATENATE(F70,C70)</f>
       </c>
@@ -2219,7 +2216,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" hidden="1">
       <c r="A71" s="3">
         <f>CONCATENATE(F71,C71)</f>
       </c>
@@ -2239,7 +2236,7 @@
         <v>1441917120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" hidden="1">
       <c r="A72" s="3">
         <f>CONCATENATE(F72,C72)</f>
       </c>
@@ -2259,7 +2256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" hidden="1">
       <c r="A73" s="3">
         <f>CONCATENATE(F73,C73)</f>
       </c>
@@ -2279,7 +2276,7 @@
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" hidden="1">
       <c r="A74" s="3">
         <f>CONCATENATE(F74,C74)</f>
       </c>
@@ -2299,7 +2296,7 @@
         <v>1441918250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" hidden="1">
       <c r="A75" s="3">
         <f>CONCATENATE(F75,C75)</f>
       </c>
@@ -2319,7 +2316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" hidden="1">
       <c r="A76" s="3">
         <f>CONCATENATE(F76,C76)</f>
       </c>
@@ -2339,7 +2336,7 @@
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" hidden="1">
       <c r="A77" s="3">
         <f>CONCATENATE(F77,C77)</f>
       </c>
@@ -2359,7 +2356,7 @@
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" hidden="1">
       <c r="A78" s="3">
         <f>CONCATENATE(F78,C78)</f>
       </c>
@@ -2379,7 +2376,7 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25" hidden="1">
       <c r="A79" s="3">
         <f>CONCATENATE(F79,C79)</f>
       </c>
@@ -2399,7 +2396,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25" hidden="1">
       <c r="A80" s="3">
         <f>CONCATENATE(F80,C80)</f>
       </c>
@@ -2419,7 +2416,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25" hidden="1">
       <c r="A81" s="3">
         <f>CONCATENATE(F81,C81)</f>
       </c>
@@ -2801,7 +2798,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="3">
-        <f>CONCATENATE(F100,C100)</f>
+        <f>concatenate(F100, C100)</f>
       </c>
       <c r="B100" s="1" t="s">
         <v>131</v>
@@ -2810,18 +2807,18 @@
         <v>7</v>
       </c>
       <c r="D100" s="3">
-        <f>CONCATENATE(B100,C100)</f>
+        <f>concatenate(B100, C100)</f>
       </c>
       <c r="E100" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F100" s="4">
-        <v>1442571274</v>
+        <v>1442571123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="3">
-        <f>CONCATENATE(F101,C101)</f>
+        <f>concatenate(F101, C101)</f>
       </c>
       <c r="B101" s="1" t="s">
         <v>132</v>
@@ -2830,18 +2827,18 @@
         <v>7</v>
       </c>
       <c r="D101" s="3">
-        <f>CONCATENATE(B101,C101)</f>
+        <f>concatenate(B101, C101)</f>
       </c>
       <c r="E101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F101" s="4">
-        <v>1442571123</v>
+        <v>1442571347</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="3">
-        <f>CONCATENATE(F102,C102)</f>
+        <f>concatenate(F102, C102)</f>
       </c>
       <c r="B102" s="1" t="s">
         <v>133</v>
@@ -2850,18 +2847,18 @@
         <v>7</v>
       </c>
       <c r="D102" s="3">
-        <f>CONCATENATE(B102,C102)</f>
+        <f>concatenate(B102, C102)</f>
       </c>
       <c r="E102" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F102" s="4">
-        <v>1442571347</v>
+        <v>1442570031</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="3">
-        <f>CONCATENATE(F103,C103)</f>
+        <f>concatenate(F103, C103)</f>
       </c>
       <c r="B103" s="1" t="s">
         <v>134</v>
@@ -2870,18 +2867,18 @@
         <v>7</v>
       </c>
       <c r="D103" s="3">
-        <f>CONCATENATE(B103,C103)</f>
+        <f>concatenate(B103, C103)</f>
       </c>
       <c r="E103" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F103" s="4">
-        <v>1442570031</v>
+        <v>1442570950</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="3">
-        <f>CONCATENATE(F104,C104)</f>
+        <f>concatenate(F104, C104)</f>
       </c>
       <c r="B104" s="1" t="s">
         <v>135</v>
@@ -2890,18 +2887,18 @@
         <v>7</v>
       </c>
       <c r="D104" s="3">
-        <f>CONCATENATE(B104,C104)</f>
+        <f>concatenate(B104, C104)</f>
       </c>
       <c r="E104" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F104" s="4">
-        <v>1442570950</v>
+        <v>1442570723</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="3">
-        <f>CONCATENATE(F105,C105)</f>
+        <f>concatenate(F105, C105)</f>
       </c>
       <c r="B105" s="1" t="s">
         <v>136</v>
@@ -2910,18 +2907,18 @@
         <v>7</v>
       </c>
       <c r="D105" s="3">
-        <f>CONCATENATE(B105,C105)</f>
+        <f>concatenate(B105, C105)</f>
       </c>
       <c r="E105" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F105" s="4">
-        <v>1442570723</v>
+        <v>1442570768</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="3">
-        <f>CONCATENATE(F106,C106)</f>
+        <f>concatenate(F106, C106)</f>
       </c>
       <c r="B106" s="1" t="s">
         <v>137</v>
@@ -2930,18 +2927,18 @@
         <v>7</v>
       </c>
       <c r="D106" s="3">
-        <f>CONCATENATE(B106,C106)</f>
+        <f>concatenate(B106, C106)</f>
       </c>
       <c r="E106" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F106" s="4">
-        <v>1442570768</v>
+        <v>1442570859</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="3">
-        <f>CONCATENATE(F107,C107)</f>
+        <f>concatenate(F107, C107)</f>
       </c>
       <c r="B107" s="1" t="s">
         <v>138</v>
@@ -2950,32 +2947,12 @@
         <v>7</v>
       </c>
       <c r="D107" s="3">
-        <f>CONCATENATE(B107,C107)</f>
+        <f>concatenate(B107, C107)</f>
       </c>
       <c r="E107" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F107" s="4">
-        <v>1442570859</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
-      <c r="A108" s="3">
-        <f>CONCATENATE(F108,C108)</f>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="3">
-        <f>CONCATENATE(B108,C108)</f>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F108" s="4">
         <v>1442569708</v>
       </c>
     </row>
